--- a/Results/SVM.xlsx
+++ b/Results/SVM.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257495-F415-BD4F-AE02-3BB61B1BB2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +19,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Radial Basis Function (RBF)</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Unprocessed</t>
+  </si>
+  <si>
+    <t>Canny Edge-sigma=1</t>
+  </si>
+  <si>
+    <t>Canny Edge-sigma=1.5</t>
+  </si>
+  <si>
+    <t>Canny Edge-sigma=2</t>
+  </si>
+  <si>
+    <t>Without Negative Class</t>
+  </si>
+  <si>
+    <t>Without Negative Class-Sorted</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,8 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +115,4737 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without Negative Class-C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> from 0.01 to 0.64</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75929349931775603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED5D-804D-9EC6-C96943E4EB58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1872467439"/>
+        <c:axId val="1872433103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1872467439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872433103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1872433103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1872467439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Without Negative Class-C from 0.025 to 0.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75914342435523796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75617977528000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E69-0045-BC7C-A2F50330F714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1837988495"/>
+        <c:axId val="2047407391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1837988495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2047407391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2047407391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1837988495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without Negative Class-C from 0.00125 to 0.02</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.75674432446698003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76183964197676401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76378956589121105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75959334939271905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75944331205183901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00A2-644B-A907-9EBF992765F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2050802495"/>
+        <c:axId val="2061658735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2050802495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061658735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061658735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050802495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without Negative Class-C from 0.003 to 0.08</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76363863012314004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76124128946762504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76154125184598698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76109203825053695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76079230047897395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C19-BF47-8D3F-B7652AD4C2CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2048874479"/>
+        <c:axId val="2048468079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2048874479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048468079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2048468079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048874479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Without Negative Class-C from 0.00125 to 0.02 Ver.2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75674432446698003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76183964197676401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76363863012314004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76124128946762504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76378956589121105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76154125184598698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76109203825053695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76079230047897395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75959334939271905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75944331205183901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.759293387014358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD36-D845-9982-D9C73F96720A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2059389887"/>
+        <c:axId val="2061133151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2059389887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061133151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061133151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059389887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A61C7A9-7D63-7443-BF47-31136999489A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B5D666-4131-0E4F-962E-D7A85F346CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B5B72-2FD4-D74F-A902-E004C506E957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08BC56D-C2E3-8C4A-AEC3-D98AE5CA47F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983B1EDA-C14A-4E4D-91A3-3163DD620518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +5110,504 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.125</v>
+      </c>
+      <c r="E4">
+        <v>0.75914342435523796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.75617977528000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.75929349931775603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0.04</v>
+      </c>
+      <c r="E7">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0.16</v>
+      </c>
+      <c r="E8">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9">
+        <v>0.64</v>
+      </c>
+      <c r="E9">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.75674432446698003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.248</v>
+      </c>
+      <c r="D11">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>0.76183964197676401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.16</v>
+      </c>
+      <c r="D12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.76378956589121105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.75959334939271905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.75944331205183901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="D16">
+        <v>0.02</v>
+      </c>
+      <c r="E16">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>0.76363863012314004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0.76124128946762504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>0.16</v>
+      </c>
+      <c r="D19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>0.76154125184598698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E20">
+        <v>0.76109203825053695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.76079230047897395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0.248</v>
+      </c>
+      <c r="D25">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E25">
+        <v>0.75674432446698003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>0.16</v>
+      </c>
+      <c r="D26">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.76183964197676401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>0.76363863012314004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>0.76124128946762504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <v>0.76378956589121105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="D30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E30">
+        <v>0.76154125184598698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E31">
+        <v>0.76109203825053695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="D32">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E32">
+        <v>0.76079230047897395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0.104</v>
+      </c>
+      <c r="D33">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.75959334939271905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.75944331205183901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0.02</v>
+      </c>
+      <c r="E36">
+        <v>0.759293387014358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/SVM.xlsx
+++ b/Results/SVM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257495-F415-BD4F-AE02-3BB61B1BB2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE64555-1798-F548-BA5D-D95F5A07A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>Kernel</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Without Negative Class-Sorted</t>
+  </si>
+  <si>
+    <t>With Negative Class</t>
   </si>
 </sst>
 </file>
@@ -1883,6 +1886,368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>With Negative Class-C from 0.001to 0.064</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$45:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.71700051361068295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72059578839239802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71854134565998895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72008217770929595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72059578839239802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72213662044170501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72213662044170501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72213662044170501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8DB-D04C-8231-112F90C3954A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2058125151"/>
+        <c:axId val="2058126799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2058125151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058126799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2058126799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058125151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2083,6 +2448,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4148,6 +4553,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4845,6 +5766,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18016D7-B2F0-AE42-B4C6-F09C7D033FC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5111,10 +6068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5597,15 +6554,94 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1E-3</v>
+      </c>
+      <c r="E45">
+        <v>0.71700051361068295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>2E-3</v>
+      </c>
+      <c r="E46">
+        <v>0.72059578839239802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E47">
+        <v>0.71854134565998895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E48">
+        <v>0.72008217770929595</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>0.01</v>
+      </c>
+      <c r="E49">
+        <v>0.72059578839239802</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.72213662044170501</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.72213662044170501</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.72213662044170501</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Results/SVM.xlsx
+++ b/Results/SVM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE64555-1798-F548-BA5D-D95F5A07A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B79F9-F05F-4B42-8507-F6E01F032BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,10 +1990,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$45:$D$52</c:f>
+              <c:f>Sheet1!$D$45:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1E-3</c:v>
                 </c:pt>
@@ -2013,9 +2013,15 @@
                   <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2023,10 +2029,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$45:$E$52</c:f>
+              <c:f>Sheet1!$E$45:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.71700051361068295</c:v>
                 </c:pt>
@@ -2049,6 +2055,12 @@
                   <c:v>0.72213662044170501</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.72213662044170501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72213662044170501</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.72213662044170501</c:v>
                 </c:pt>
               </c:numCache>
@@ -6068,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="E50" sqref="E50:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6618,7 +6630,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51">
-        <v>3.2000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E51">
         <v>0.72213662044170501</v>
@@ -6626,9 +6638,25 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.72213662044170501</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.72213662044170501</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D54">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>0.72213662044170501</v>
       </c>
     </row>

--- a/Results/SVM.xlsx
+++ b/Results/SVM.xlsx
@@ -3,13 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B79F9-F05F-4B42-8507-F6E01F032BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33200399-1C90-4D44-A703-F1E32C5AA481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Kernel</t>
   </si>
@@ -63,6 +69,9 @@
   <si>
     <t>With Negative Class</t>
   </si>
+  <si>
+    <t>Transfer learning</t>
+  </si>
 </sst>
 </file>
 
@@ -97,11 +106,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,7 +244,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$6:$D$9</c:f>
+              <c:f>Sheet1!$O$6:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -250,7 +265,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$6:$E$9</c:f>
+              <c:f>Sheet1!$P$6:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -463,6 +478,626 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Canny Edge Detecor: 𝜎=2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radial Basis Function (RBF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5A3-CD4A-A8FC-E469361AFB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1834460575"/>
+        <c:axId val="2063046511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1834460575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063046511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063046511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834460575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transfer Learning</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radial Basis Function (RBF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D02-904E-9C40-9FDBFB45348C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="135574544"/>
+        <c:axId val="135876464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="135574544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135876464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135876464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="135574544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -572,7 +1207,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:f>Sheet1!$O$3:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -590,7 +1225,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:f>Sheet1!$P$3:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -904,7 +1539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$16</c:f>
+              <c:f>Sheet1!$O$10:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -934,7 +1569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$16</c:f>
+              <c:f>Sheet1!$P$10:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1260,7 +1895,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:f>Sheet1!$O$17:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1284,7 +1919,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$17:$E$21</c:f>
+              <c:f>Sheet1!$P$17:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1604,7 +2239,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$36</c:f>
+              <c:f>Sheet1!$O$25:$O$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1649,7 +2284,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$36</c:f>
+              <c:f>Sheet1!$P$25:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1990,7 +2625,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$45:$D$54</c:f>
+              <c:f>Sheet1!$O$45:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2029,7 +2664,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$45:$E$54</c:f>
+              <c:f>Sheet1!$P$45:$P$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2260,7 +2895,1059 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unprocessed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radial Basis Function (RBF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A9-AF45-8F04-295CBD0384A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2061658959"/>
+        <c:axId val="2061924639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2061658959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061924639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2061924639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061658959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Canny Edge Detecor:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝜎</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>=1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radial Basis Function (RBF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9199999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9B3-BA40-8FB1-E532680A44F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2057620799"/>
+        <c:axId val="2057989023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2057620799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057989023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2057989023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2057620799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Canny Edge Detecor: 𝜎=1.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Radial Basis Function (RBF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Polynomial</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sigmoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F125-2F42-B459-03AFC28C1FA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2085834159"/>
+        <c:axId val="2086523855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2085834159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086523855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086523855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085834159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2500,6 +4187,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3016,8 +4823,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3044,8 +4851,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3146,7 +4953,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3178,10 +4985,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3221,23 +5028,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3342,8 +5148,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3475,20 +5281,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3502,17 +5307,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3532,8 +5326,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3560,8 +5354,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3662,7 +5456,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3694,10 +5488,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3737,23 +5531,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3858,8 +5651,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3991,20 +5784,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4018,17 +5810,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4048,7 +5829,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4564,7 +6345,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5080,7 +6861,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5596,17 +7377,2558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5636,13 +9958,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -5672,14 +9994,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -5708,13 +10030,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -5744,13 +10066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -5780,13 +10102,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -5809,6 +10131,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC26ACC-0F21-DD49-BFAC-10020EE0C885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9528290-8A18-2448-918C-59F750DF4341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD22452-29B6-5045-ACCA-CE5926181C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746AB128-9F76-BA4A-BC7A-7DD6F4E99B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B5B71C-D802-E544-8ADC-0CDB0AA75C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6080,591 +10582,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:E52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
-      <c r="D3">
+      <c r="O3" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E3">
+      <c r="P3" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.21249999999999999</v>
       </c>
-      <c r="D4">
+      <c r="O4" s="4">
         <v>0.125</v>
       </c>
-      <c r="E4">
+      <c r="P4" s="4">
         <v>0.75914342435523796</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D5">
+      <c r="O5" s="4">
         <v>0.5</v>
       </c>
-      <c r="E5">
+      <c r="P5" s="4">
         <v>0.75617977528000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="D6">
+      <c r="O6" s="4">
         <v>0.01</v>
       </c>
-      <c r="E6">
+      <c r="P6" s="4">
         <v>0.75929349931775603</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
         <v>0.04</v>
       </c>
-      <c r="E7">
+      <c r="P7" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
         <v>0.16</v>
       </c>
-      <c r="E8">
+      <c r="P8" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="D9">
+      <c r="O9" s="4">
         <v>0.64</v>
       </c>
-      <c r="E9">
+      <c r="P9" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="O10" s="4">
         <v>1.25E-3</v>
       </c>
-      <c r="E10">
+      <c r="P10" s="4">
         <v>0.75674432446698003</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
         <v>0.248</v>
       </c>
-      <c r="D11">
+      <c r="O11" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E11">
+      <c r="P11" s="4">
         <v>0.76183964197676401</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
         <v>0.16</v>
       </c>
-      <c r="D12">
+      <c r="O12" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E12">
+      <c r="P12" s="4">
         <v>0.76378956589121105</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D13">
+      <c r="O13" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E13">
+      <c r="P13" s="4">
         <v>0.75959334939271905</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="D14">
+      <c r="O14" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E14">
+      <c r="P14" s="4">
         <v>0.75944331205183901</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E15">
+      <c r="P15" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="D16">
+      <c r="O16" s="4">
         <v>0.02</v>
       </c>
-      <c r="E16">
+      <c r="P16" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="O17" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E17">
+      <c r="P17" s="4">
         <v>0.76363863012314004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D18">
+      <c r="O18" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E18">
+      <c r="P18" s="4">
         <v>0.76124128946762504</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
         <v>0.16</v>
       </c>
-      <c r="D19">
+      <c r="O19" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E19">
+      <c r="P19" s="4">
         <v>0.76154125184598698</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D20">
+      <c r="O20" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E20">
+      <c r="P20" s="4">
         <v>0.76109203825053695</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
         <v>0.2</v>
       </c>
-      <c r="D21">
+      <c r="O21" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E21">
+      <c r="P21" s="4">
         <v>0.76079230047897395</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="O24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="P24" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
         <v>0.248</v>
       </c>
-      <c r="D25">
+      <c r="O25" s="4">
         <v>1.25E-3</v>
       </c>
-      <c r="E25">
+      <c r="P25" s="4">
         <v>0.75674432446698003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
         <v>0.16</v>
       </c>
-      <c r="D26">
+      <c r="O26" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="E26">
+      <c r="P26" s="4">
         <v>0.76183964197676401</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B27">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D27">
+      <c r="O27" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E27">
+      <c r="P27" s="4">
         <v>0.76363863012314004</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D28">
+      <c r="O28" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28">
+      <c r="P28" s="4">
         <v>0.76124128946762504</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E29">
+      <c r="P29" s="4">
         <v>0.76378956589121105</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="D30">
+      <c r="O30" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E30">
+      <c r="P30" s="4">
         <v>0.76154125184598698</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="O31" s="4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E31">
+      <c r="P31" s="4">
         <v>0.76109203825053695</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
         <v>0.67200000000000004</v>
       </c>
-      <c r="D32">
+      <c r="O32" s="4">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E32">
+      <c r="P32" s="4">
         <v>0.76079230047897395</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33">
         <v>0.104</v>
       </c>
-      <c r="D33">
+      <c r="O33" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E33">
+      <c r="P33" s="4">
         <v>0.75959334939271905</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D34">
+      <c r="O34" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E34">
+      <c r="P34" s="4">
         <v>0.75944331205183901</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D35">
+      <c r="O35" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E35">
+      <c r="P35" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O36" s="4">
         <v>0.02</v>
       </c>
-      <c r="E36">
+      <c r="P36" s="4">
         <v>0.759293387014358</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>2</v>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0.71700051361068295</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3</v>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="P46" s="4">
+        <v>0.72059578839239802</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O47" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0.71854134565998895</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>5</v>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0.72008217770929595</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2"/>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0.72059578839239802</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O50" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P50" s="4">
+        <v>0.72213662044170501</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <v>1E-3</v>
-      </c>
-      <c r="E45">
-        <v>0.71700051361068295</v>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O51" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="P51" s="4">
+        <v>0.72213662044170501</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <v>2E-3</v>
-      </c>
-      <c r="E46">
-        <v>0.72059578839239802</v>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0.72213662044170501</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E47">
-        <v>0.71854134565998895</v>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O53" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0.72213662044170501</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E48">
-        <v>0.72008217770929595</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <v>0.01</v>
-      </c>
-      <c r="E49">
-        <v>0.72059578839239802</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E50">
-        <v>0.72213662044170501</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <v>0.02</v>
-      </c>
-      <c r="E51">
-        <v>0.72213662044170501</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D52">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E52">
-        <v>0.72213662044170501</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E53">
-        <v>0.72213662044170501</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D54">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O54" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E54">
+      <c r="P54" s="4">
         <v>0.72213662044170501</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D43:E43"/>
+  <mergeCells count="9">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A16:B16"/>
